--- a/images/Cauhinhphancung.xlsx
+++ b/images/Cauhinhphancung.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
